--- a/biology/Botanique/Les_Naturiales/Les_Naturiales.xlsx
+++ b/biology/Botanique/Les_Naturiales/Les_Naturiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Naturiales est un événement annuel dédié à la nature et à l'environnement se déroulant  durant plusieurs jours de fin de semaine en mai, dans la ville de Fontainebleau, en France.
 </t>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des kiosques d'exposition s'établissent en allées. On[Qui ?] retrouve notamment un « éco-village », des ventes et des trocs de plantes, un marché du terroir et des « ateliers nature ». L'Office national des forêts a déjà participé à une édition pour une reconstitution de l'écosystème de la forêt[1],[2]. Des promenades guidées en forêt sont aussi coordonnées dans le cadre de ces événements[3].
-En parallèle des sujets environnementaux, des animations sont aussi organisées, comme la mise en place de tyroliennes de 40 et 60 mètres[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des kiosques d'exposition s'établissent en allées. On[Qui ?] retrouve notamment un « éco-village », des ventes et des trocs de plantes, un marché du terroir et des « ateliers nature ». L'Office national des forêts a déjà participé à une édition pour une reconstitution de l'écosystème de la forêt,. Des promenades guidées en forêt sont aussi coordonnées dans le cadre de ces événements.
+En parallèle des sujets environnementaux, des animations sont aussi organisées, comme la mise en place de tyroliennes de 40 et 60 mètres,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Lieux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le festival se déroule essentiellement sur la place de la République. Selon les éditions, des animations peuvent en parallèle avoir lieu sur la place Napoléon-Bonaparte, sur la place d'Armes, au théâtre municipal, devant l'hôtel de ville et sur plusieurs rues du centre-ville.
 			L'hôtel de ville décoré de bannières pour le festival, en 2018
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,9 +619,11 @@
           <t>Partenariats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis plusieurs années[Depuis quand ?], un partenariat est entretenu avec la société de parcs de stationnement Interparking France[15],[16]. Ce partenariat a été à nouveau approuvé par le conseil municipal pour l'édition de 2020 (finalement annulée en raison de la pandémie)[17].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis plusieurs années[Depuis quand ?], un partenariat est entretenu avec la société de parcs de stationnement Interparking France,. Ce partenariat a été à nouveau approuvé par le conseil municipal pour l'édition de 2020 (finalement annulée en raison de la pandémie).
 </t>
         </is>
       </c>
